--- a/contract.xlsx
+++ b/contract.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
-    <t>Hisob-varaq shartnoma 7</t>
-  </si>
-  <si>
-    <t>14.01.2025 yil                                                                                                                Chela shaxri</t>
+    <t>Hisob-varaq shartnoma 2</t>
+  </si>
+  <si>
+    <t>12/04/2025 yil                                                                                                                Chelak shaxri</t>
   </si>
   <si>
     <r>
@@ -328,7 +328,7 @@
     <t>"Asaka bank" AJ Bosh ofisi.</t>
   </si>
   <si>
-    <t>MFO: 00873 STIR: 301409058</t>
+    <t>MFO: 00873   STIR: 301409058</t>
   </si>
   <si>
     <t>Rahbar: ____________________   J. Tursunov</t>

--- a/contract.xlsx
+++ b/contract.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
-    <t>Hisob-varaq shartnoma 2</t>
+    <t>Hisob-varaq shartnoma 3</t>
   </si>
   <si>
     <t>12/04/2025 yil                                                                                                                Chelak shaxri</t>
@@ -322,13 +322,13 @@
     <t xml:space="preserve">Chelak shaxri, A. Jo’rayev ko'chasi 5-uy </t>
   </si>
   <si>
-    <t>H.r: 20208000504817335002</t>
-  </si>
-  <si>
-    <t>"Asaka bank" AJ Bosh ofisi.</t>
-  </si>
-  <si>
-    <t>MFO: 00873   STIR: 301409058</t>
+    <t>H.r: 20208000104817335001</t>
+  </si>
+  <si>
+    <t>ChEKI AT “Hamkor bank”</t>
+  </si>
+  <si>
+    <t>MFO: 00083   STIR: 301409058</t>
   </si>
   <si>
     <t>Rahbar: ____________________   J. Tursunov</t>
